--- a/python/openpyxl/copy-range/template.xlsx
+++ b/python/openpyxl/copy-range/template.xlsx
@@ -5,13 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Empty" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Empty-id" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Empty-en" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Empty!$A$1:$L$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Empty-en'!$A$1:$L$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Empty-id'!$A$1:$L$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t xml:space="preserve">Faktur Pajak Keluaran</t>
   </si>
@@ -89,6 +93,60 @@
   </si>
   <si>
     <t xml:space="preserve">Keterangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output Tax Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxpayer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Inv ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Inv Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signatory User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAT Lux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Inv Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
   </si>
 </sst>
 </file>
@@ -180,12 +238,68 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -214,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,15 +373,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -283,6 +405,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,7 +425,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,6 +441,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,8 +453,28 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,7 +510,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF1976D2"/>
       <rgbColor rgb="FFBBDEFB"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -382,7 +536,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF0D47A1"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -403,8 +557,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,16 +647,16 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="4"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -516,18 +670,18 @@
     </row>
     <row r="5" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="4"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -541,20 +695,20 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="4"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -568,23 +722,23 @@
     </row>
     <row r="7" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="24"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -597,23 +751,23 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="17" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -626,21 +780,21 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="30"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -653,19 +807,20 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="4"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -679,38 +834,38 @@
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="26" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="15"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="4"/>
       <c r="M12" s="1"/>
       <c r="R12" s="2"/>
@@ -737,6 +892,916 @@
       <c r="XFB13" s="1"/>
       <c r="XFC13" s="1"/>
       <c r="XFD13" s="1"/>
+    </row>
+    <row r="1048502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.551388888888889" right="0.551388888888889" top="0.551388888888889" bottom="0.551388888888889" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF1976D2"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:XFD1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="XFB3" s="0"/>
+      <c r="XFC3" s="0"/>
+      <c r="XFD3" s="0"/>
+    </row>
+    <row r="4" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="XFB4" s="0"/>
+      <c r="XFC4" s="0"/>
+      <c r="XFD4" s="0"/>
+    </row>
+    <row r="5" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="XFB5" s="0"/>
+      <c r="XFC5" s="0"/>
+      <c r="XFD5" s="0"/>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="XFB6" s="0"/>
+      <c r="XFC6" s="0"/>
+      <c r="XFD6" s="0"/>
+    </row>
+    <row r="7" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="XFB7" s="0"/>
+      <c r="XFC7" s="0"/>
+      <c r="XFD7" s="0"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="XFB8" s="0"/>
+      <c r="XFC8" s="0"/>
+      <c r="XFD8" s="0"/>
+    </row>
+    <row r="9" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="30"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="XFB9" s="0"/>
+      <c r="XFC9" s="0"/>
+      <c r="XFD9" s="0"/>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="XFB10" s="0"/>
+      <c r="XFC10" s="0"/>
+      <c r="XFD10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="XFB13" s="0"/>
+      <c r="XFC13" s="0"/>
+      <c r="XFD13" s="0"/>
+    </row>
+    <row r="1048502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <pageMargins left="0.551388888888889" right="0.551388888888889" top="0.551388888888889" bottom="0.551388888888889" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FF0D47A1"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:XFD1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="24.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="XFB3" s="0"/>
+      <c r="XFC3" s="0"/>
+      <c r="XFD3" s="0"/>
+    </row>
+    <row r="4" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="XFB4" s="0"/>
+      <c r="XFC4" s="0"/>
+      <c r="XFD4" s="0"/>
+    </row>
+    <row r="5" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="XFB5" s="0"/>
+      <c r="XFC5" s="0"/>
+      <c r="XFD5" s="0"/>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="XFB6" s="0"/>
+      <c r="XFC6" s="0"/>
+      <c r="XFD6" s="0"/>
+    </row>
+    <row r="7" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="XFB7" s="0"/>
+      <c r="XFC7" s="0"/>
+      <c r="XFD7" s="0"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="XFB8" s="0"/>
+      <c r="XFC8" s="0"/>
+      <c r="XFD8" s="0"/>
+    </row>
+    <row r="9" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="30"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="XFB9" s="0"/>
+      <c r="XFC9" s="0"/>
+      <c r="XFD9" s="0"/>
+    </row>
+    <row r="10" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="XFB10" s="0"/>
+      <c r="XFC10" s="0"/>
+      <c r="XFD10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="XFB13" s="0"/>
+      <c r="XFC13" s="0"/>
+      <c r="XFD13" s="0"/>
     </row>
     <row r="1048502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/python/openpyxl/copy-range/template.xlsx
+++ b/python/openpyxl/copy-range/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Empty" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t xml:space="preserve">Faktur Pajak Keluaran</t>
   </si>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">Approval Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Month Period</t>
+    <t xml:space="preserve">Period</t>
   </si>
   <si>
     <t xml:space="preserve">Base Price</t>
@@ -131,10 +131,13 @@
     <t xml:space="preserve">VAT</t>
   </si>
   <si>
+    <t xml:space="preserve">Record Date</t>
+  </si>
+  <si>
     <t xml:space="preserve">VAT Lux</t>
   </si>
   <si>
-    <t xml:space="preserve">Record Date</t>
+    <t xml:space="preserve">Record User</t>
   </si>
   <si>
     <t xml:space="preserve">Tax Inv Status</t>
@@ -558,7 +561,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="J:J C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1008,12 +1011,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N8" activeCellId="0" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="N8" activeCellId="1" sqref="J:J N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1034,7 +1037,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="21.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1088,9 +1091,9 @@
       <c r="Q3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="XFB3" s="0"/>
-      <c r="XFC3" s="0"/>
-      <c r="XFD3" s="0"/>
+      <c r="XFB3" s="1"/>
+      <c r="XFC3" s="1"/>
+      <c r="XFD3" s="1"/>
     </row>
     <row r="4" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -1119,9 +1122,9 @@
       <c r="Q4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="XFB4" s="0"/>
-      <c r="XFC4" s="0"/>
-      <c r="XFD4" s="0"/>
+      <c r="XFB4" s="1"/>
+      <c r="XFC4" s="1"/>
+      <c r="XFD4" s="1"/>
     </row>
     <row r="5" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -1144,9 +1147,9 @@
       <c r="Q5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="XFB5" s="0"/>
-      <c r="XFC5" s="0"/>
-      <c r="XFD5" s="0"/>
+      <c r="XFB5" s="1"/>
+      <c r="XFC5" s="1"/>
+      <c r="XFD5" s="1"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1171,9 +1174,9 @@
       <c r="Q6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="XFB6" s="0"/>
-      <c r="XFC6" s="0"/>
-      <c r="XFD6" s="0"/>
+      <c r="XFB6" s="1"/>
+      <c r="XFC6" s="1"/>
+      <c r="XFD6" s="1"/>
     </row>
     <row r="7" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1200,9 +1203,9 @@
       <c r="Q7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XFB7" s="1"/>
+      <c r="XFC7" s="1"/>
+      <c r="XFD7" s="1"/>
     </row>
     <row r="8" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -1229,9 +1232,9 @@
       <c r="Q8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="XFB8" s="0"/>
-      <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XFB8" s="1"/>
+      <c r="XFC8" s="1"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -1256,9 +1259,9 @@
       <c r="Q9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="XFB9" s="0"/>
-      <c r="XFC9" s="0"/>
-      <c r="XFD9" s="0"/>
+      <c r="XFB9" s="1"/>
+      <c r="XFC9" s="1"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
@@ -1283,9 +1286,9 @@
       <c r="Q10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="XFB10" s="0"/>
-      <c r="XFC10" s="0"/>
-      <c r="XFD10" s="0"/>
+      <c r="XFB10" s="1"/>
+      <c r="XFC10" s="1"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
@@ -1344,9 +1347,9 @@
       <c r="Q13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="XFB13" s="0"/>
-      <c r="XFC13" s="0"/>
-      <c r="XFD13" s="0"/>
+      <c r="XFB13" s="1"/>
+      <c r="XFC13" s="1"/>
+      <c r="XFD13" s="1"/>
     </row>
     <row r="1048502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1463,12 +1466,12 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="90" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="J7" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.42578125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,8 +1483,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="4.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="21.43"/>
@@ -1489,7 +1492,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="21.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="13.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1543,9 +1546,9 @@
       <c r="Q3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="XFB3" s="0"/>
-      <c r="XFC3" s="0"/>
-      <c r="XFD3" s="0"/>
+      <c r="XFB3" s="1"/>
+      <c r="XFC3" s="1"/>
+      <c r="XFD3" s="1"/>
     </row>
     <row r="4" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
@@ -1574,9 +1577,9 @@
       <c r="Q4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="XFB4" s="0"/>
-      <c r="XFC4" s="0"/>
-      <c r="XFD4" s="0"/>
+      <c r="XFB4" s="1"/>
+      <c r="XFC4" s="1"/>
+      <c r="XFD4" s="1"/>
     </row>
     <row r="5" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
@@ -1599,9 +1602,9 @@
       <c r="Q5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="XFB5" s="0"/>
-      <c r="XFC5" s="0"/>
-      <c r="XFD5" s="0"/>
+      <c r="XFB5" s="1"/>
+      <c r="XFC5" s="1"/>
+      <c r="XFD5" s="1"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -1626,9 +1629,9 @@
       <c r="Q6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="XFB6" s="0"/>
-      <c r="XFC6" s="0"/>
-      <c r="XFD6" s="0"/>
+      <c r="XFB6" s="1"/>
+      <c r="XFC6" s="1"/>
+      <c r="XFD6" s="1"/>
     </row>
     <row r="7" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
@@ -1655,9 +1658,9 @@
       <c r="Q7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="XFB7" s="0"/>
-      <c r="XFC7" s="0"/>
-      <c r="XFD7" s="0"/>
+      <c r="XFB7" s="1"/>
+      <c r="XFC7" s="1"/>
+      <c r="XFD7" s="1"/>
     </row>
     <row r="8" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
@@ -1684,15 +1687,15 @@
       <c r="Q8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="XFB8" s="0"/>
-      <c r="XFC8" s="0"/>
-      <c r="XFD8" s="0"/>
+      <c r="XFB8" s="1"/>
+      <c r="XFC8" s="1"/>
+      <c r="XFD8" s="1"/>
     </row>
     <row r="9" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -1700,7 +1703,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
@@ -1711,20 +1714,20 @@
       <c r="Q9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
-      <c r="XFB9" s="0"/>
-      <c r="XFC9" s="0"/>
-      <c r="XFD9" s="0"/>
+      <c r="XFB9" s="1"/>
+      <c r="XFC9" s="1"/>
+      <c r="XFD9" s="1"/>
     </row>
     <row r="10" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="25"/>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -1738,15 +1741,15 @@
       <c r="Q10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
-      <c r="XFB10" s="0"/>
-      <c r="XFC10" s="0"/>
-      <c r="XFD10" s="0"/>
+      <c r="XFB10" s="1"/>
+      <c r="XFC10" s="1"/>
+      <c r="XFD10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -1764,12 +1767,12 @@
       <c r="A12" s="3"/>
       <c r="B12" s="33"/>
       <c r="C12" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
       <c r="F12" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -1799,9 +1802,9 @@
       <c r="Q13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
-      <c r="XFB13" s="0"/>
-      <c r="XFC13" s="0"/>
-      <c r="XFD13" s="0"/>
+      <c r="XFB13" s="1"/>
+      <c r="XFC13" s="1"/>
+      <c r="XFD13" s="1"/>
     </row>
     <row r="1048502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
